--- a/objects.xlsx
+++ b/objects.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\junscgjavab\day7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45419F91-7F6D-48F5-A3BD-286D7AD895CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A752BD-078D-4E66-945A-8EB03608938F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D4A7618-1CF1-4524-B10C-233A83BB6120}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{9D4A7618-1CF1-4524-B10C-233A83BB6120}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Objects" sheetId="1" r:id="rId1"/>
+    <sheet name="Arrays" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -499,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F194EC1-E0C6-434C-99AD-71DECD9F074D}">
   <dimension ref="B2:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A15" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,4 +627,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F346865-6666-4501-9215-1B5CADAA7ECF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/objects.xlsx
+++ b/objects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\junscgjavab\day7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A752BD-078D-4E66-945A-8EB03608938F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C3B7B5-44C6-467A-B50B-3831AC0DFF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{9D4A7618-1CF1-4524-B10C-233A83BB6120}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>hlo</t>
   </si>
@@ -91,6 +91,24 @@
   </si>
   <si>
     <t>contactNumber = 0</t>
+  </si>
+  <si>
+    <t>c12</t>
+  </si>
+  <si>
+    <t>c13</t>
+  </si>
+  <si>
+    <t>c14</t>
+  </si>
+  <si>
+    <t>cols</t>
+  </si>
+  <si>
+    <t>rows</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -114,7 +132,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -174,16 +192,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,14 +677,139 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F346865-6666-4501-9215-1B5CADAA7ECF}">
-  <dimension ref="A1"/>
+  <dimension ref="A10:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2</v>
+      </c>
+      <c r="E12" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>5</v>
+      </c>
+      <c r="E19" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5">
+        <v>9</v>
+      </c>
+      <c r="E20" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" s="5">
+        <v>56</v>
+      </c>
+      <c r="E21" s="5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="5">
+        <v>56</v>
+      </c>
+      <c r="C23" s="5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B24:C24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/objects.xlsx
+++ b/objects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\junscgjavab\day7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C3B7B5-44C6-467A-B50B-3831AC0DFF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21634EC1-16C7-4F81-A5DB-0B97955B319C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{9D4A7618-1CF1-4524-B10C-233A83BB6120}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>hlo</t>
   </si>
@@ -109,6 +109,39 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>employee1</t>
+  </si>
+  <si>
+    <t>employee2</t>
+  </si>
+  <si>
+    <t>employee3</t>
+  </si>
+  <si>
+    <t>companyName</t>
+  </si>
+  <si>
+    <t>id  1</t>
+  </si>
+  <si>
+    <t>name Rohan</t>
+  </si>
+  <si>
+    <t>id 2</t>
+  </si>
+  <si>
+    <t>name Zuben</t>
+  </si>
+  <si>
+    <t>id  3</t>
+  </si>
+  <si>
+    <t>name  Nita</t>
+  </si>
+  <si>
+    <t>abc</t>
   </si>
 </sst>
 </file>
@@ -132,7 +165,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -216,11 +249,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -230,6 +300,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -677,10 +750,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F346865-6666-4501-9215-1B5CADAA7ECF}">
-  <dimension ref="A10:E26"/>
+  <dimension ref="A10:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,12 +806,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D18">
         <v>0</v>
       </c>
@@ -746,7 +819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>0</v>
       </c>
@@ -757,7 +830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>23</v>
       </c>
@@ -771,7 +844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>2</v>
       </c>
@@ -782,7 +855,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
         <v>56</v>
       </c>
@@ -790,20 +863,68 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E31" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="I32" s="9"/>
+    </row>
+    <row r="33" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
